--- a/Codethon/SyncupEngine/ConfigFiles/Websites.xlsx
+++ b/Codethon/SyncupEngine/ConfigFiles/Websites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\C402193\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Scrapy\Test\Test\spiders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0976CA39-CDAD-4AAD-8769-33BCAD5A39D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733D4126-DCF3-466E-9F78-854830994DF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="10980" xr2:uid="{F22C6993-601C-442E-B7BC-89132A1FB981}"/>
+    <workbookView xWindow="1050" yWindow="1020" windowWidth="13410" windowHeight="6510" xr2:uid="{F22C6993-601C-442E-B7BC-89132A1FB981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>PharmacyName</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>//*[@id="product_listings"]/ul/li[1]/div[3]/h3/text()</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
   </si>
 </sst>
 </file>
@@ -93,9 +96,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,39 +415,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F9AB6-8FA7-45BF-B4F9-47147F0A050E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>500062</v>
       </c>
     </row>
   </sheetData>
